--- a/public/tender/tender-samplesss.xlsx
+++ b/public/tender/tender-samplesss.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Bid No</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Qty</t>
   </si>
   <si>
+    <t>Tender Type</t>
+  </si>
+  <si>
     <t>Some time Department publishing tender for particular Limited vendor, so in that tender only registered vendor can bid tender and get tender. so if you want to bid that type tender then first you have be the vendor of that department. don't worry we will help you to be the vendor of any government department.</t>
   </si>
   <si>
@@ -110,10 +113,22 @@
     <t>https://www.w3.org/WAI/ER/tests/xhtml/testfiles/resources/pdf/dummy.pdf</t>
   </si>
   <si>
+    <t>AMV</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>VMD</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Don</t>
   </si>
 </sst>
 </file>
@@ -1272,8 +1287,8 @@
   </sheetPr>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4"/>
@@ -1335,7 +1350,9 @@
       <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
@@ -1345,36 +1362,36 @@
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
     </row>
-    <row r="2" customHeight="1" spans="1:17">
+    <row r="2" customHeight="1" spans="1:18">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4">
         <v>1234</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="4">
         <v>1200</v>
@@ -1389,13 +1406,16 @@
         <v>45646</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2">
         <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:26">
@@ -1403,31 +1423,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6">
         <v>1234</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="6">
         <v>1200</v>
@@ -1442,15 +1462,17 @@
         <v>45646</v>
       </c>
       <c r="O3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q3" s="8">
         <v>10</v>
       </c>
-      <c r="R3" s="8"/>
+      <c r="R3" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -1465,31 +1487,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6">
         <v>1234</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6">
         <v>1200</v>
@@ -1504,15 +1526,17 @@
         <v>45646</v>
       </c>
       <c r="O4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q4" s="8">
         <v>5</v>
       </c>
-      <c r="R4" s="8"/>
+      <c r="R4" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
@@ -1527,31 +1551,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
         <v>1234</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="6">
         <v>1200</v>
@@ -1566,15 +1590,17 @@
         <v>45646</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="8">
         <v>4</v>
       </c>
-      <c r="R5" s="8"/>
+      <c r="R5" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
